--- a/Documentazione/booklets/KPA_Implementation.xlsx
+++ b/Documentazione/booklets/KPA_Implementation.xlsx
@@ -172,7 +172,7 @@
   </si>
   <si>
     <t xml:space="preserve">Computed
- PMAT 
+ EPML 
 Through
  KPI</t>
   </si>
@@ -329,8 +329,8 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,8 +658,8 @@
         <v>43</v>
       </c>
       <c r="I21" s="0" t="n">
-        <f aca="false">5 - (I20 * 5 / 18)</f>
-        <v>4.21666666666667</v>
+        <f aca="false">I20 * 5 / 18</f>
+        <v>0.783333333333333</v>
       </c>
     </row>
   </sheetData>
